--- a/Version_1/8_bit_PC_BOM .xlsx
+++ b/Version_1/8_bit_PC_BOM .xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pier\Documents\EAGLE\projects\8_bit-PC\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF8B95EB-9F1E-4929-B694-18D60B7B4530}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2859DD7-39B1-4B2A-9DA8-DE20C5FB9344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-20520" yWindow="-2130" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8_bit_Left_Rev_A_BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="213">
   <si>
     <t>Qty</t>
   </si>
@@ -253,9 +253,6 @@
     <t>36M3542</t>
   </si>
   <si>
-    <t>7400N</t>
-  </si>
-  <si>
     <t>DIL14</t>
   </si>
   <si>
@@ -265,18 +262,12 @@
     <t>Quad 2-input NAND gate</t>
   </si>
   <si>
-    <t>7404N</t>
-  </si>
-  <si>
     <t>IC7, IC13, IC28, IC39</t>
   </si>
   <si>
     <t>Hex INVERTER</t>
   </si>
   <si>
-    <t>74157N</t>
-  </si>
-  <si>
     <t>DIL16</t>
   </si>
   <si>
@@ -559,9 +550,6 @@
     <t>74S283N</t>
   </si>
   <si>
-    <t>74S08N</t>
-  </si>
-  <si>
     <t>IC1, IC4, IC7, IC15</t>
   </si>
   <si>
@@ -589,33 +577,21 @@
     <t>IC9, IC10</t>
   </si>
   <si>
-    <t>7486N</t>
-  </si>
-  <si>
     <t>Dual J-K FLIP FLOP, preset and clear</t>
   </si>
   <si>
     <t>IC18</t>
   </si>
   <si>
-    <t>7476N</t>
-  </si>
-  <si>
     <t>Octal D type FLIP FLOP, clear</t>
   </si>
   <si>
     <t>IC20</t>
   </si>
   <si>
-    <t>74273N</t>
-  </si>
-  <si>
     <t>Quad 2-input NOR gate</t>
   </si>
   <si>
-    <t>7402N</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -668,12 +644,27 @@
   </si>
   <si>
     <t xml:space="preserve">PCB </t>
+  </si>
+  <si>
+    <t>74LS00N</t>
+  </si>
+  <si>
+    <t>74LS02N</t>
+  </si>
+  <si>
+    <t>74LS273N</t>
+  </si>
+  <si>
+    <t>74LS76N</t>
+  </si>
+  <si>
+    <t>74LS86N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2133,14 +2124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2180,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="49" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>3</v>
@@ -2233,7 +2224,7 @@
         <v>71</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>72</v>
@@ -2265,19 +2256,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>71</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>74</v>
@@ -2309,7 +2300,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>67</v>
@@ -2339,13 +2330,13 @@
         <v>67</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>69</v>
@@ -2371,13 +2362,13 @@
         <v>67</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>69</v>
@@ -2403,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>61</v>
@@ -2439,13 +2430,13 @@
         <v>60</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>63</v>
@@ -2469,22 +2460,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="20"/>
@@ -2501,22 +2492,22 @@
         <v>1</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="20"/>
@@ -2533,22 +2524,22 @@
         <v>4</v>
       </c>
       <c r="C12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="20"/>
@@ -2560,27 +2551,27 @@
       <c r="N12" s="28"/>
       <c r="O12" s="37"/>
     </row>
-    <row r="13" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>86</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="20"/>
@@ -2592,57 +2583,59 @@
       <c r="N13" s="28"/>
       <c r="O13" s="37"/>
     </row>
-    <row r="14" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>1</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="E14" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="20"/>
       <c r="K14" s="24"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
       <c r="N14" s="28"/>
       <c r="O14" s="37"/>
     </row>
-    <row r="15" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>1</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>190</v>
+        <v>89</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="20"/>
@@ -2652,27 +2645,27 @@
       <c r="N15" s="28"/>
       <c r="O15" s="37"/>
     </row>
-    <row r="16" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="E16" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="20"/>
@@ -2684,97 +2677,95 @@
       <c r="N16" s="28"/>
       <c r="O16" s="37"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>1</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="20"/>
       <c r="K17" s="24"/>
       <c r="L17" s="28"/>
-      <c r="M17" s="32">
-        <v>0</v>
-      </c>
+      <c r="M17" s="32"/>
       <c r="N17" s="28"/>
       <c r="O17" s="37"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>1</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="E18" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="20"/>
       <c r="K18" s="24"/>
       <c r="L18" s="28"/>
-      <c r="M18" s="32">
-        <v>0</v>
-      </c>
+      <c r="M18" s="32"/>
       <c r="N18" s="28"/>
       <c r="O18" s="37"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="20"/>
       <c r="K19" s="24"/>
       <c r="L19" s="28"/>
-      <c r="M19" s="32"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
       <c r="N19" s="28"/>
       <c r="O19" s="37"/>
     </row>
@@ -2789,16 +2780,16 @@
         <v>93</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>94</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="20"/>
@@ -2813,22 +2804,22 @@
         <v>1</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="E21" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="20"/>
@@ -2843,22 +2834,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="20"/>
@@ -2868,9 +2859,9 @@
       <c r="N22" s="28"/>
       <c r="O22" s="37"/>
     </row>
-    <row r="23" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="40" t="s">
         <v>98</v>
@@ -2879,10 +2870,10 @@
         <v>98</v>
       </c>
       <c r="E23" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>99</v>
@@ -2894,11 +2885,13 @@
       <c r="J23" s="20"/>
       <c r="K23" s="24"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="32"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
       <c r="N23" s="28"/>
       <c r="O23" s="37"/>
     </row>
-    <row r="24" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="39">
         <v>1</v>
       </c>
@@ -2909,13 +2902,13 @@
         <v>98</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>100</v>
@@ -2930,25 +2923,25 @@
     </row>
     <row r="25" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="20"/>
@@ -2960,28 +2953,26 @@
       <c r="N25" s="28"/>
       <c r="O25" s="37"/>
     </row>
-    <row r="26" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E26" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>103</v>
-      </c>
+      <c r="H26" s="12"/>
       <c r="I26" s="15"/>
       <c r="J26" s="20"/>
       <c r="K26" s="24"/>
@@ -2992,25 +2983,25 @@
     </row>
     <row r="27" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="20"/>
@@ -3022,9 +3013,9 @@
       <c r="N27" s="28"/>
       <c r="O27" s="37"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="40" t="s">
         <v>105</v>
@@ -3033,73 +3024,75 @@
         <v>105</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="I28" s="15"/>
       <c r="J28" s="20"/>
       <c r="K28" s="24"/>
       <c r="L28" s="28"/>
-      <c r="M28" s="32"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
       <c r="N28" s="28"/>
       <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E29" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="20"/>
       <c r="K29" s="24"/>
       <c r="L29" s="28"/>
-      <c r="M29" s="32">
-        <v>0</v>
-      </c>
+      <c r="M29" s="32"/>
       <c r="N29" s="28"/>
       <c r="O29" s="37"/>
     </row>
-    <row r="30" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" s="55" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>111</v>
@@ -3114,59 +3107,57 @@
       <c r="N30" s="28"/>
       <c r="O30" s="37"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="39">
         <v>1</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="20"/>
       <c r="K31" s="24"/>
       <c r="L31" s="28"/>
-      <c r="M31" s="32">
-        <v>0</v>
-      </c>
+      <c r="M31" s="32"/>
       <c r="N31" s="28"/>
       <c r="O31" s="37"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="20"/>
@@ -3183,22 +3174,22 @@
         <v>2</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="20"/>
@@ -3215,22 +3206,22 @@
         <v>1</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="20"/>
@@ -3253,7 +3244,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>36</v>
@@ -3285,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="55" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>36</v>
@@ -3317,13 +3308,13 @@
         <v>35</v>
       </c>
       <c r="E37" s="55" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>38</v>
@@ -3349,13 +3340,13 @@
         <v>35</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>38</v>
@@ -3381,7 +3372,7 @@
         <v>55</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>56</v>
@@ -3408,27 +3399,27 @@
       </c>
       <c r="C40" s="40"/>
       <c r="D40" s="41" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="20"/>
       <c r="K40" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M40" s="32">
         <v>20</v>
@@ -3441,30 +3432,30 @@
         <v>4</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="20"/>
       <c r="K41" s="24" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M41" s="32"/>
       <c r="N41" s="28"/>
@@ -3475,22 +3466,22 @@
         <v>3</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="20"/>
@@ -3507,22 +3498,22 @@
         <v>21</v>
       </c>
       <c r="C43" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>118</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="20"/>
@@ -3537,22 +3528,22 @@
         <v>6</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="20"/>
@@ -3567,22 +3558,22 @@
         <v>12</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="20"/>
@@ -3597,22 +3588,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="20"/>
@@ -3627,22 +3618,22 @@
         <v>8</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="20"/>
@@ -3657,22 +3648,22 @@
         <v>6</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="20"/>
@@ -3687,22 +3678,22 @@
         <v>24</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="20"/>
@@ -3717,22 +3708,22 @@
         <v>3</v>
       </c>
       <c r="C50" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="20"/>
@@ -3747,22 +3738,22 @@
         <v>1</v>
       </c>
       <c r="C51" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="20"/>
@@ -3777,22 +3768,22 @@
         <v>4</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F52" s="3">
         <v>2.8</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="20"/>
@@ -3809,22 +3800,22 @@
         <v>5</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F53" s="3">
         <v>2.8</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="20"/>
@@ -3845,7 +3836,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -3871,13 +3862,13 @@
         <v>1</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D55" s="41" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>14</v>
@@ -3903,19 +3894,19 @@
         <v>1</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D56" s="41" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>16</v>
@@ -3939,7 +3930,7 @@
         <v>13</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>14</v>
@@ -3969,7 +3960,7 @@
         <v>17</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>18</v>
@@ -3995,19 +3986,19 @@
         <v>1</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D59" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>16</v>
@@ -4027,19 +4018,19 @@
         <v>1</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D60" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H60" s="12" t="s">
         <v>16</v>
@@ -4059,19 +4050,19 @@
         <v>1</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>16</v>
@@ -4091,19 +4082,19 @@
         <v>1</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>16</v>
@@ -4123,19 +4114,19 @@
         <v>1</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H63" s="12" t="s">
         <v>16</v>
@@ -4155,19 +4146,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D64" s="41" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>16</v>
@@ -4191,13 +4182,13 @@
         <v>17</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>16</v>
@@ -4221,7 +4212,7 @@
         <v>20</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>21</v>
@@ -4247,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D67" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>21</v>
@@ -4279,19 +4270,19 @@
         <v>1</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D68" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>16</v>
@@ -4315,7 +4306,7 @@
         <v>20</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>21</v>
@@ -4345,7 +4336,7 @@
         <v>23</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>24</v>
@@ -4371,13 +4362,13 @@
         <v>1</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D71" s="41" t="s">
         <v>23</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>24</v>
@@ -4403,19 +4394,19 @@
         <v>1</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D72" s="41" t="s">
         <v>23</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>16</v>
@@ -4439,7 +4430,7 @@
         <v>23</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>24</v>
@@ -4471,7 +4462,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>44</v>
@@ -4503,7 +4494,7 @@
         <v>47</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>48</v>
@@ -4537,7 +4528,7 @@
         <v>47</v>
       </c>
       <c r="E76" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>48</v>
@@ -4571,7 +4562,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>48</v>
@@ -4599,19 +4590,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D78" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>50</v>
@@ -4639,13 +4630,13 @@
         <v>47</v>
       </c>
       <c r="E79" s="53" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H79" s="12" t="s">
         <v>50</v>
@@ -4667,19 +4658,19 @@
         <v>1</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D80" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E80" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>50</v>
@@ -4701,19 +4692,19 @@
         <v>1</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D81" s="41" t="s">
         <v>47</v>
       </c>
       <c r="E81" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>50</v>
@@ -4741,13 +4732,13 @@
         <v>47</v>
       </c>
       <c r="E82" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>50</v>
@@ -4775,13 +4766,13 @@
         <v>47</v>
       </c>
       <c r="E83" s="53" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>50</v>
@@ -4809,7 +4800,7 @@
         <v>27</v>
       </c>
       <c r="E84" s="53" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>28</v>
@@ -4839,7 +4830,7 @@
         <v>31</v>
       </c>
       <c r="E85" s="54" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>32</v>
@@ -4861,7 +4852,7 @@
       <c r="O85" s="38"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O85">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O88">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Version_1/8_bit_PC_BOM .xlsx
+++ b/Version_1/8_bit_PC_BOM .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pier\Documents\EAGLE\projects\8_bit-PC\Version_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2859DD7-39B1-4B2A-9DA8-DE20C5FB9344}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB05C6D-D1F4-4581-B980-3676EF7D8B6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-2130" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="213">
   <si>
     <t>Qty</t>
   </si>
@@ -2131,7 +2131,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
+      <selection pane="bottomRight" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,7 +4301,9 @@
       <c r="B69" s="39">
         <v>1</v>
       </c>
-      <c r="C69" s="40"/>
+      <c r="C69" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="D69" s="41" t="s">
         <v>20</v>
       </c>
